--- a/data/trans_orig/P6709-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40492E89-3BB8-4F60-8F79-B014442C81CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{965025C5-9F27-433F-9185-4B670BC01CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC724D9D-B09F-42D0-B8F6-F0DDC12131DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{952F5AA5-EC9D-4B5A-A14A-302828D5ED33}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="552">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,1633 +75,1624 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>7,41%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>28,67%</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B761E4-601C-4E0D-A79D-EA62AC550D11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6178B7-5517-41A3-9431-A9496463740B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,16 +2312,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -2339,13 +2330,13 @@
         <v>16295</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -2354,13 +2345,13 @@
         <v>19877</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -2369,19 +2360,19 @@
         <v>36172</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -2390,13 +2381,13 @@
         <v>16819</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2405,13 +2396,13 @@
         <v>18940</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2420,19 +2411,19 @@
         <v>35759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -2441,13 +2432,13 @@
         <v>25729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -2456,13 +2447,13 @@
         <v>33952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -2471,13 +2462,13 @@
         <v>59681</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2483,13 @@
         <v>81904</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2507,13 +2498,13 @@
         <v>86828</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -2522,18 +2513,18 @@
         <v>168732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2536,13 @@
         <v>33345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2560,13 +2551,13 @@
         <v>28954</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -2575,13 +2566,13 @@
         <v>62299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2587,13 @@
         <v>27022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2611,10 +2602,10 @@
         <v>22857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -2638,7 +2629,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>90</v>
@@ -2689,7 +2680,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>94</v>
@@ -2740,7 +2731,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>130</v>
@@ -2767,10 +2758,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -2779,13 +2770,13 @@
         <v>227870</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2791,13 @@
         <v>382777</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>255</v>
@@ -2815,13 +2806,13 @@
         <v>274010</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>623</v>
@@ -2830,18 +2821,18 @@
         <v>656788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2853,13 +2844,13 @@
         <v>28926</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2868,13 +2859,13 @@
         <v>22793</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -2883,13 +2874,13 @@
         <v>51719</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2895,13 @@
         <v>31684</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2919,13 +2910,13 @@
         <v>25431</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2934,19 +2925,19 @@
         <v>57116</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>87</v>
@@ -2955,13 +2946,13 @@
         <v>88240</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2997,7 +2988,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>114</v>
@@ -3048,7 +3039,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>151</v>
@@ -3108,13 +3099,13 @@
         <v>423280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -3123,13 +3114,13 @@
         <v>284841</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>680</v>
@@ -3138,13 +3129,13 @@
         <v>708121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,7 +3158,7 @@
         <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3176,10 +3167,10 @@
         <v>24699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>156</v>
@@ -3248,13 +3239,13 @@
         <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>59</v>
@@ -3263,13 +3254,13 @@
         <v>67284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3278,10 +3269,10 @@
         <v>41555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>173</v>
@@ -3305,7 +3296,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>84</v>
@@ -3329,10 +3320,10 @@
         <v>44982</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>181</v>
@@ -3356,7 +3347,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>144</v>
@@ -3368,10 +3359,10 @@
         <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3380,13 +3371,13 @@
         <v>98014</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>228</v>
@@ -3395,13 +3386,13 @@
         <v>260496</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3407,13 @@
         <v>366639</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3431,13 +3422,13 @@
         <v>223185</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>516</v>
@@ -3446,18 +3437,18 @@
         <v>589824</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3469,13 +3460,13 @@
         <v>5303</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3499,13 +3490,13 @@
         <v>9740</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3511,13 @@
         <v>6449</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3535,13 +3526,13 @@
         <v>2128</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3550,19 +3541,19 @@
         <v>8577</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>28</v>
@@ -3571,13 +3562,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3586,13 +3577,13 @@
         <v>13579</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3601,19 +3592,19 @@
         <v>43850</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -3622,13 +3613,13 @@
         <v>33691</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3637,13 +3628,13 @@
         <v>15788</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -3652,19 +3643,19 @@
         <v>49479</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>77</v>
@@ -3673,13 +3664,13 @@
         <v>80622</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -3688,13 +3679,13 @@
         <v>32716</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>106</v>
@@ -3703,13 +3694,13 @@
         <v>113338</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3715,13 @@
         <v>156336</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
@@ -3739,13 +3730,13 @@
         <v>68648</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>208</v>
@@ -3754,18 +3745,18 @@
         <v>224984</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3777,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3792,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3807,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3843,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3858,19 +3849,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3879,13 +3870,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3894,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3909,19 +3900,19 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3930,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3945,13 +3936,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3960,19 +3951,19 @@
         <v>1857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -3981,13 +3972,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3996,13 +3987,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4011,13 +4002,13 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4023,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4047,13 +4038,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4062,13 +4053,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4076,13 @@
         <v>97602</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>85</v>
@@ -4100,13 +4091,13 @@
         <v>91047</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>172</v>
@@ -4115,10 +4106,10 @@
         <v>188649</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>261</v>
@@ -4157,7 +4148,7 @@
         <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>153</v>
@@ -4166,7 +4157,7 @@
         <v>167413</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>268</v>
@@ -4178,7 +4169,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>281</v>
@@ -4229,7 +4220,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>339</v>
@@ -4256,10 +4247,10 @@
         <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>539</v>
@@ -4280,7 +4271,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>528</v>
@@ -4340,13 +4331,13 @@
         <v>1413953</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>868</v>
@@ -4355,13 +4346,13 @@
         <v>940350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2195</v>
@@ -4370,13 +4361,13 @@
         <v>2354303</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7783F935-CAB2-4D2E-A28B-607F1C975C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21D31FD-A3C1-4D50-B6B0-06C7BDCA1343}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4560,7 +4551,7 @@
         <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>305</v>
@@ -4596,10 +4587,10 @@
         <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4608,19 +4599,19 @@
         <v>21708</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -4671,7 +4662,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4722,7 +4713,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -4749,10 +4740,10 @@
         <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -4761,13 +4752,13 @@
         <v>38835</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4773,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4797,13 +4788,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4812,18 +4803,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4835,13 +4826,13 @@
         <v>42554</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4850,13 +4841,13 @@
         <v>26466</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4865,13 +4856,13 @@
         <v>69020</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4877,13 @@
         <v>55771</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4901,13 +4892,13 @@
         <v>37676</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4916,19 +4907,19 @@
         <v>93447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>90</v>
@@ -4937,13 +4928,13 @@
         <v>92485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -4952,13 +4943,13 @@
         <v>80580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -4967,19 +4958,19 @@
         <v>173065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>96</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>73</v>
@@ -4988,13 +4979,13 @@
         <v>73859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5003,13 +4994,13 @@
         <v>71753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5018,19 +5009,19 @@
         <v>145612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>75</v>
@@ -5039,13 +5030,13 @@
         <v>79516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5054,13 +5045,13 @@
         <v>57240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5069,13 +5060,13 @@
         <v>136757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5081,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5105,13 +5096,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5120,18 +5111,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5143,13 +5134,13 @@
         <v>45163</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5158,10 +5149,10 @@
         <v>41135</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>386</v>
@@ -5194,13 +5185,13 @@
         <v>56800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5209,13 +5200,13 @@
         <v>47451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -5224,19 +5215,19 @@
         <v>104250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>115</v>
@@ -5245,13 +5236,13 @@
         <v>122828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -5260,13 +5251,13 @@
         <v>67399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5278,16 +5269,16 @@
         <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>178</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>108</v>
@@ -5296,10 +5287,10 @@
         <v>111123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>406</v>
@@ -5311,13 +5302,13 @@
         <v>73887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -5326,19 +5317,19 @@
         <v>185009</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>116</v>
@@ -5347,10 +5338,10 @@
         <v>123674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>413</v>
@@ -5362,13 +5353,13 @@
         <v>87542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -5377,13 +5368,13 @@
         <v>211216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5389,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5413,13 +5404,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5428,13 +5419,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,7 +5442,7 @@
         <v>36061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>420</v>
@@ -5472,7 +5463,7 @@
         <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -5481,13 +5472,13 @@
         <v>60998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,10 +5493,10 @@
         <v>46968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>343</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>429</v>
@@ -5544,7 +5535,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>83</v>
@@ -5583,19 +5574,19 @@
         <v>153567</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>80</v>
@@ -5604,10 +5595,10 @@
         <v>88244</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>445</v>
@@ -5619,13 +5610,13 @@
         <v>51685</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -5634,19 +5625,19 @@
         <v>139929</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>94</v>
@@ -5658,10 +5649,10 @@
         <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -5670,13 +5661,13 @@
         <v>70869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>23</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5685,13 +5676,13 @@
         <v>176173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5697,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5721,13 +5712,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5736,18 +5727,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5759,13 +5750,13 @@
         <v>16604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>34</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -5774,13 +5765,13 @@
         <v>10338</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -5789,13 +5780,13 @@
         <v>26942</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5801,13 @@
         <v>18425</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5825,13 +5816,13 @@
         <v>19832</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5840,19 +5831,19 @@
         <v>38257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>35</v>
@@ -5861,13 +5852,13 @@
         <v>41289</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5876,13 +5867,13 @@
         <v>21184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>42</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -5891,19 +5882,19 @@
         <v>62474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -5912,13 +5903,13 @@
         <v>30267</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>426</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5927,10 +5918,10 @@
         <v>23348</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>484</v>
@@ -5942,19 +5933,19 @@
         <v>53615</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>485</v>
+        <v>16</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>486</v>
+        <v>67</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>487</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>54</v>
@@ -5963,13 +5954,13 @@
         <v>59141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>488</v>
+        <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>489</v>
+        <v>372</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -5978,13 +5969,13 @@
         <v>31176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -5993,13 +5984,13 @@
         <v>90317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6005,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6029,13 +6020,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6044,18 +6035,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6082,13 +6073,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6097,13 +6088,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6133,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6148,19 +6139,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6169,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6184,13 +6175,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6199,19 +6190,19 @@
         <v>1183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -6220,13 +6211,13 @@
         <v>2870</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6235,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6250,19 +6241,19 @@
         <v>2870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>207</v>
+        <v>504</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -6271,13 +6262,13 @@
         <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6286,13 +6277,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>514</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6301,13 +6292,13 @@
         <v>6103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6313,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6337,13 +6328,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6352,13 +6343,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6366,13 @@
         <v>154140</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>312</v>
+        <v>514</v>
       </c>
       <c r="H40" s="7">
         <v>107</v>
@@ -6390,13 +6381,13 @@
         <v>109992</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="M40" s="7">
         <v>246</v>
@@ -6405,13 +6396,13 @@
         <v>264132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6417,13 @@
         <v>187440</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>356</v>
+        <v>522</v>
       </c>
       <c r="H41" s="7">
         <v>146</v>
@@ -6441,13 +6432,13 @@
         <v>150403</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M41" s="7">
         <v>322</v>
@@ -6456,19 +6447,19 @@
         <v>337843</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>349</v>
@@ -6477,13 +6468,13 @@
         <v>376194</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -6492,13 +6483,13 @@
         <v>264690</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="M42" s="7">
         <v>615</v>
@@ -6507,19 +6498,19 @@
         <v>640885</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>13</v>
+        <v>535</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>305</v>
@@ -6528,13 +6519,13 @@
         <v>321151</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H43" s="7">
         <v>232</v>
@@ -6543,13 +6534,13 @@
         <v>236082</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>540</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>542</v>
+        <v>183</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>535</v>
+        <v>91</v>
       </c>
       <c r="M43" s="7">
         <v>537</v>
@@ -6558,19 +6549,19 @@
         <v>557233</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>354</v>
@@ -6579,13 +6570,13 @@
         <v>383397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H44" s="7">
         <v>262</v>
@@ -6594,13 +6585,13 @@
         <v>276004</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="M44" s="7">
         <v>616</v>
@@ -6609,13 +6600,13 @@
         <v>659401</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6621,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6645,13 +6636,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6660,13 +6651,13 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6709-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{965025C5-9F27-433F-9185-4B670BC01CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE586E2B-43E9-4394-9806-DB9895E1097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{952F5AA5-EC9D-4B5A-A14A-302828D5ED33}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73AE35DB-3AB2-423A-B8D5-1A8CD043FFA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="568">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,1624 +75,1672 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>35,69%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>25,18%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>24,36%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>29,25%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>29,32%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>28,56%</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6178B7-5517-41A3-9431-A9496463740B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EB619-6C88-4F9F-8CAF-F4D2465C5401}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2450,10 +2498,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -2462,13 +2510,13 @@
         <v>59681</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2531,13 @@
         <v>81904</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>85</v>
@@ -2498,13 +2546,13 @@
         <v>86828</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -2513,18 +2561,18 @@
         <v>168732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2536,13 +2584,13 @@
         <v>33345</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -2551,13 +2599,13 @@
         <v>28954</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -2566,13 +2614,13 @@
         <v>62299</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2635,13 @@
         <v>27022</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -2602,10 +2650,10 @@
         <v>22857</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -2758,10 +2806,10 @@
         <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -2770,13 +2818,13 @@
         <v>227870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2839,13 @@
         <v>382777</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>255</v>
@@ -2806,13 +2854,13 @@
         <v>274010</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>623</v>
@@ -2821,18 +2869,18 @@
         <v>656788</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2844,13 +2892,13 @@
         <v>28926</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2859,13 +2907,13 @@
         <v>22793</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -2874,13 +2922,13 @@
         <v>51719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2943,13 @@
         <v>31684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2910,13 +2958,13 @@
         <v>25431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2925,13 +2973,13 @@
         <v>57116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2994,13 @@
         <v>88240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -2961,13 +3009,13 @@
         <v>59203</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -2976,13 +3024,13 @@
         <v>147443</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3045,13 @@
         <v>117405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3012,13 +3060,13 @@
         <v>60081</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>171</v>
@@ -3027,13 +3075,13 @@
         <v>177486</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3096,13 @@
         <v>157026</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -3063,13 +3111,13 @@
         <v>117332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -3078,13 +3126,13 @@
         <v>274358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3147,13 @@
         <v>423280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>272</v>
@@ -3114,13 +3162,13 @@
         <v>284841</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>680</v>
@@ -3129,18 +3177,18 @@
         <v>708121</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3152,13 +3200,13 @@
         <v>17638</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3167,13 +3215,13 @@
         <v>24699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3182,13 +3230,13 @@
         <v>42337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3251,13 @@
         <v>23340</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3218,13 +3266,13 @@
         <v>13935</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3233,13 +3281,13 @@
         <v>37276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3302,13 @@
         <v>67284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3269,13 +3317,13 @@
         <v>41555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -3284,13 +3332,13 @@
         <v>108839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3353,13 @@
         <v>95894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3320,13 +3368,13 @@
         <v>44982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -3335,13 +3383,13 @@
         <v>140876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3404,13 @@
         <v>162482</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3371,13 +3419,13 @@
         <v>98014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>228</v>
@@ -3386,13 +3434,13 @@
         <v>260496</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3455,13 @@
         <v>366639</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>191</v>
@@ -3422,13 +3470,13 @@
         <v>223185</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>516</v>
@@ -3437,18 +3485,18 @@
         <v>589824</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3460,13 +3508,13 @@
         <v>5303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3475,13 +3523,13 @@
         <v>4437</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3490,13 +3538,13 @@
         <v>9740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3559,13 @@
         <v>6449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3526,13 +3574,13 @@
         <v>2128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3541,13 +3589,13 @@
         <v>8577</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3610,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3577,13 +3625,13 @@
         <v>13579</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3592,13 +3640,13 @@
         <v>43850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3661,13 @@
         <v>33691</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3628,13 +3676,13 @@
         <v>15788</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -3643,13 +3691,13 @@
         <v>49479</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3712,13 @@
         <v>80622</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -3679,13 +3727,13 @@
         <v>32716</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>106</v>
@@ -3694,13 +3742,13 @@
         <v>113338</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,13 +3763,13 @@
         <v>156336</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>62</v>
@@ -3730,13 +3778,13 @@
         <v>68648</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>208</v>
@@ -3745,18 +3793,18 @@
         <v>224984</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3768,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3783,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3798,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3834,13 +3882,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3849,13 +3897,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3918,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3885,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3900,13 +3948,13 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3936,13 +3984,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3951,13 +3999,13 @@
         <v>1857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +4020,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3987,13 +4035,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4002,13 +4050,13 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4071,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4038,13 +4086,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4053,13 +4101,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4124,13 @@
         <v>97602</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H40" s="7">
         <v>85</v>
@@ -4091,13 +4139,13 @@
         <v>91047</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M40" s="7">
         <v>172</v>
@@ -4106,13 +4154,13 @@
         <v>188649</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4175,13 @@
         <v>99167</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H41" s="7">
         <v>61</v>
@@ -4142,28 +4190,28 @@
         <v>68247</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M41" s="7">
         <v>153</v>
       </c>
       <c r="N41" s="7">
-        <v>167413</v>
+        <v>167414</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4226,13 @@
         <v>296208</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H42" s="7">
         <v>177</v>
@@ -4193,28 +4241,28 @@
         <v>196235</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M42" s="7">
         <v>458</v>
       </c>
       <c r="N42" s="7">
-        <v>492443</v>
+        <v>492444</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4277,13 @@
         <v>356282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H43" s="7">
         <v>200</v>
@@ -4244,13 +4292,13 @@
         <v>210776</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M43" s="7">
         <v>539</v>
@@ -4259,13 +4307,13 @@
         <v>567058</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4328,13 @@
         <v>564694</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>345</v>
@@ -4295,13 +4343,13 @@
         <v>374046</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>873</v>
@@ -4310,13 +4358,13 @@
         <v>938740</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4379,13 @@
         <v>1413953</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>868</v>
@@ -4346,33 +4394,33 @@
         <v>940350</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>2195</v>
       </c>
       <c r="N45" s="7">
-        <v>2354303</v>
+        <v>2354304</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21D31FD-A3C1-4D50-B6B0-06C7BDCA1343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F40F12E-6918-461F-8438-A95655BDAD40}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4459,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4566,13 @@
         <v>13758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4533,13 +4581,13 @@
         <v>6095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4548,13 +4596,13 @@
         <v>19853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4617,13 @@
         <v>9475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4584,13 +4632,13 @@
         <v>12233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4599,13 +4647,13 @@
         <v>21708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4668,13 @@
         <v>28441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -4635,13 +4683,13 @@
         <v>31928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -4650,13 +4698,13 @@
         <v>60369</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4719,13 @@
         <v>14790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4686,13 +4734,13 @@
         <v>15409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4701,13 +4749,13 @@
         <v>30198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4770,13 @@
         <v>12645</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4737,13 +4785,13 @@
         <v>26190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -4752,13 +4800,13 @@
         <v>38835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4821,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4788,13 +4836,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4803,18 +4851,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4826,13 +4874,13 @@
         <v>42554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4841,13 +4889,13 @@
         <v>26466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4856,13 +4904,13 @@
         <v>69020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4925,13 @@
         <v>55771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4892,13 +4940,13 @@
         <v>37676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4907,13 +4955,13 @@
         <v>93447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4976,13 @@
         <v>92485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -4943,13 +4991,13 @@
         <v>80580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -4958,13 +5006,13 @@
         <v>173065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>96</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5027,13 @@
         <v>73859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -4994,13 +5042,13 @@
         <v>71753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5009,13 +5057,13 @@
         <v>145612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5078,13 @@
         <v>79516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5045,13 +5093,13 @@
         <v>57240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5060,13 +5108,13 @@
         <v>136757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5129,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5096,13 +5144,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5111,18 +5159,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5134,13 +5182,13 @@
         <v>45163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5149,13 +5197,13 @@
         <v>41135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5164,13 +5212,13 @@
         <v>86299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5233,13 @@
         <v>56800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5200,13 +5248,13 @@
         <v>47451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -5215,13 +5263,13 @@
         <v>104250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5284,13 @@
         <v>122828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -5251,13 +5299,13 @@
         <v>67399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5266,13 +5314,13 @@
         <v>190227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5335,13 @@
         <v>111123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -5302,13 +5350,13 @@
         <v>73887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -5317,13 +5365,13 @@
         <v>185009</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5386,13 @@
         <v>123674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5353,13 +5401,13 @@
         <v>87542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -5368,13 +5416,13 @@
         <v>211216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5437,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5404,13 +5452,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5419,18 +5467,18 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5442,13 +5490,13 @@
         <v>36061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5457,13 +5505,13 @@
         <v>24937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -5472,13 +5520,13 @@
         <v>60998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5541,13 @@
         <v>46968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>343</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5508,13 +5556,13 @@
         <v>33211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -5523,13 +5571,13 @@
         <v>80179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5592,13 @@
         <v>91151</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -5559,13 +5607,13 @@
         <v>62416</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5574,13 +5622,13 @@
         <v>153567</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>449</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5643,13 @@
         <v>88244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -5610,13 +5658,13 @@
         <v>51685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -5625,13 +5673,13 @@
         <v>139929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5694,13 @@
         <v>105305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -5661,13 +5709,13 @@
         <v>70869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5676,13 +5724,13 @@
         <v>176173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5745,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5712,13 +5760,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5727,18 +5775,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5750,13 +5798,13 @@
         <v>16604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -5765,13 +5813,13 @@
         <v>10338</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -5780,13 +5828,13 @@
         <v>26942</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5849,13 @@
         <v>18425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5816,13 +5864,13 @@
         <v>19832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5831,13 +5879,13 @@
         <v>38257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5900,13 @@
         <v>41289</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5867,13 +5915,13 @@
         <v>21184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>42</v>
+        <v>488</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -5882,13 +5930,13 @@
         <v>62474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5951,13 @@
         <v>30267</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>481</v>
+        <v>360</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>492</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5918,13 +5966,13 @@
         <v>23348</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>495</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -5933,13 +5981,13 @@
         <v>53615</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>16</v>
+        <v>458</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>67</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +6002,13 @@
         <v>59141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>499</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -5969,13 +6017,13 @@
         <v>31176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -5984,13 +6032,13 @@
         <v>90317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>281</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6053,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6020,13 +6068,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6035,18 +6083,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6058,13 +6106,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6073,13 +6121,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6088,13 +6136,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6124,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6139,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6175,13 +6223,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6190,13 +6238,13 @@
         <v>1183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6259,13 @@
         <v>2870</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6226,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6241,13 +6289,13 @@
         <v>2870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6310,13 @@
         <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6277,13 +6325,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>206</v>
+        <v>527</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6292,13 +6340,13 @@
         <v>6103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>328</v>
+        <v>529</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6361,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6328,13 +6376,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6343,13 +6391,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6414,13 @@
         <v>154140</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="H40" s="7">
         <v>107</v>
@@ -6381,13 +6429,13 @@
         <v>109992</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="M40" s="7">
         <v>246</v>
@@ -6396,13 +6444,13 @@
         <v>264132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>70</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6465,13 @@
         <v>187440</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="H41" s="7">
         <v>146</v>
@@ -6432,13 +6480,13 @@
         <v>150403</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="M41" s="7">
         <v>322</v>
@@ -6447,13 +6495,13 @@
         <v>337843</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>528</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6516,13 @@
         <v>376194</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -6483,13 +6531,13 @@
         <v>264690</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="M42" s="7">
         <v>615</v>
@@ -6498,13 +6546,13 @@
         <v>640885</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>537</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6567,13 @@
         <v>321151</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H43" s="7">
         <v>232</v>
@@ -6534,13 +6582,13 @@
         <v>236082</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>183</v>
+        <v>557</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>91</v>
+        <v>558</v>
       </c>
       <c r="M43" s="7">
         <v>537</v>
@@ -6549,13 +6597,13 @@
         <v>557233</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>273</v>
+        <v>560</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6618,13 @@
         <v>383397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>544</v>
+        <v>408</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="H44" s="7">
         <v>262</v>
@@ -6585,13 +6633,13 @@
         <v>276004</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="M44" s="7">
         <v>616</v>
@@ -6600,13 +6648,13 @@
         <v>659401</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>550</v>
+        <v>466</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6669,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6636,13 +6684,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6651,18 +6699,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE586E2B-43E9-4394-9806-DB9895E1097F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75ADDEE-2529-4D21-8909-CE70B91D8F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73AE35DB-3AB2-423A-B8D5-1A8CD043FFA0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFA8224-5791-429B-B0F6-C5207512813A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,1672 +75,1633 @@
     <t>15,13%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>8,85%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
+    <t>22,58%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>28,79%</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279EB619-6C88-4F9F-8CAF-F4D2465C5401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF764E5E-A83E-4CC9-AB41-11427775F32B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2360,16 +2321,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>16</v>
@@ -2378,13 +2339,13 @@
         <v>16295</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -2393,13 +2354,13 @@
         <v>19877</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -2408,19 +2369,19 @@
         <v>36172</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>17</v>
@@ -2429,13 +2390,13 @@
         <v>16819</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2444,13 +2405,13 @@
         <v>18940</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2459,19 +2420,19 @@
         <v>35759</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -2480,13 +2441,13 @@
         <v>25729</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -2495,10 +2456,10 @@
         <v>33952</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -2677,7 +2638,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>90</v>
@@ -2728,7 +2689,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>94</v>
@@ -2779,7 +2740,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>130</v>
@@ -2985,7 +2946,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>87</v>
@@ -3000,7 +2961,7 @@
         <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -3009,13 +2970,13 @@
         <v>59203</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>142</v>
@@ -3024,19 +2985,19 @@
         <v>147443</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>114</v>
@@ -3045,13 +3006,13 @@
         <v>117405</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -3060,13 +3021,13 @@
         <v>60081</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>171</v>
@@ -3075,19 +3036,19 @@
         <v>177486</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>151</v>
@@ -3096,13 +3057,13 @@
         <v>157026</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>113</v>
@@ -3111,13 +3072,13 @@
         <v>117332</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>264</v>
@@ -3126,13 +3087,13 @@
         <v>274358</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3149,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3200,13 +3161,13 @@
         <v>17638</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3215,13 +3176,13 @@
         <v>24699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3230,13 +3191,13 @@
         <v>42337</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3212,13 @@
         <v>23340</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3266,13 +3227,13 @@
         <v>13935</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -3281,19 +3242,19 @@
         <v>37276</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>59</v>
@@ -3302,13 +3263,13 @@
         <v>67284</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3317,13 +3278,13 @@
         <v>41555</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>92</v>
@@ -3332,19 +3293,19 @@
         <v>108839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>84</v>
@@ -3353,13 +3314,13 @@
         <v>95894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3368,13 +3329,13 @@
         <v>44982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -3383,19 +3344,19 @@
         <v>140876</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>144</v>
@@ -3404,13 +3365,13 @@
         <v>162482</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>84</v>
@@ -3419,13 +3380,13 @@
         <v>98014</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>228</v>
@@ -3434,13 +3395,13 @@
         <v>260496</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3457,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3508,13 +3469,13 @@
         <v>5303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3523,13 +3484,13 @@
         <v>4437</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3538,13 +3499,13 @@
         <v>9740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3520,13 @@
         <v>6449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3574,13 +3535,13 @@
         <v>2128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3589,19 +3550,19 @@
         <v>8577</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>28</v>
@@ -3610,13 +3571,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3625,13 +3586,13 @@
         <v>13579</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -3640,19 +3601,19 @@
         <v>43850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>30</v>
@@ -3661,13 +3622,13 @@
         <v>33691</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -3676,13 +3637,13 @@
         <v>15788</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -3691,19 +3652,19 @@
         <v>49479</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>77</v>
@@ -3712,13 +3673,13 @@
         <v>80622</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -3727,13 +3688,13 @@
         <v>32716</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>106</v>
@@ -3742,13 +3703,13 @@
         <v>113338</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3765,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3816,13 +3777,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3831,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3846,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3882,13 +3843,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3897,19 +3858,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
@@ -3918,13 +3879,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3933,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3948,19 +3909,19 @@
         <v>1000</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3969,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3984,13 +3945,13 @@
         <v>1857</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3999,19 +3960,19 @@
         <v>1857</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -4020,13 +3981,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4035,13 +3996,13 @@
         <v>981</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4050,13 +4011,13 @@
         <v>2997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4085,13 @@
         <v>97602</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>85</v>
@@ -4139,13 +4100,13 @@
         <v>91047</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M40" s="7">
         <v>172</v>
@@ -4154,13 +4115,13 @@
         <v>188649</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4136,13 @@
         <v>99167</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>61</v>
@@ -4190,34 +4151,34 @@
         <v>68247</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M41" s="7">
         <v>153</v>
       </c>
       <c r="N41" s="7">
-        <v>167414</v>
+        <v>167413</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>281</v>
@@ -4226,13 +4187,13 @@
         <v>296208</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>177</v>
@@ -4241,34 +4202,34 @@
         <v>196235</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>458</v>
       </c>
       <c r="N42" s="7">
-        <v>492444</v>
+        <v>492443</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>339</v>
@@ -4277,13 +4238,13 @@
         <v>356282</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>127</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>200</v>
@@ -4292,13 +4253,13 @@
         <v>210776</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>539</v>
@@ -4307,19 +4268,19 @@
         <v>567058</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>528</v>
@@ -4328,13 +4289,13 @@
         <v>564694</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>345</v>
@@ -4343,13 +4304,13 @@
         <v>374046</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>873</v>
@@ -4358,13 +4319,13 @@
         <v>938740</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4367,7 @@
         <v>2195</v>
       </c>
       <c r="N45" s="7">
-        <v>2354304</v>
+        <v>2354303</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>59</v>
@@ -4420,7 +4381,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4442,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F40F12E-6918-461F-8438-A95655BDAD40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B606B-C062-49C6-9C3A-380514714770}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4459,7 +4420,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4566,13 +4527,13 @@
         <v>13758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4581,13 +4542,13 @@
         <v>6095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4596,13 +4557,13 @@
         <v>19853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4578,13 @@
         <v>9475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4632,13 +4593,13 @@
         <v>12233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4647,19 +4608,19 @@
         <v>21708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>26</v>
@@ -4668,13 +4629,13 @@
         <v>28441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -4683,13 +4644,13 @@
         <v>31928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -4698,19 +4659,19 @@
         <v>60369</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>14</v>
@@ -4719,13 +4680,13 @@
         <v>14790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4734,13 +4695,13 @@
         <v>15409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4749,19 +4710,19 @@
         <v>30198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>12</v>
@@ -4770,13 +4731,13 @@
         <v>12645</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4785,13 +4746,13 @@
         <v>26190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -4800,13 +4761,13 @@
         <v>38835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4835,13 @@
         <v>42554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4889,13 +4850,13 @@
         <v>26466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4904,13 +4865,13 @@
         <v>69020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4886,13 @@
         <v>55771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4940,13 +4901,13 @@
         <v>37676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4955,19 +4916,19 @@
         <v>93447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>90</v>
@@ -4976,13 +4937,13 @@
         <v>92485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -4991,13 +4952,13 @@
         <v>80580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -5006,19 +4967,19 @@
         <v>173065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>73</v>
@@ -5027,13 +4988,13 @@
         <v>73859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5042,13 +5003,13 @@
         <v>71753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5057,19 +5018,19 @@
         <v>145612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>75</v>
@@ -5078,13 +5039,13 @@
         <v>79516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5093,13 +5054,13 @@
         <v>57240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5108,13 +5069,13 @@
         <v>136757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5143,13 @@
         <v>45163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5197,13 +5158,13 @@
         <v>41135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -5212,13 +5173,13 @@
         <v>86299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5194,13 @@
         <v>56800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5248,13 +5209,13 @@
         <v>47451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -5263,19 +5224,19 @@
         <v>104250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>115</v>
@@ -5284,13 +5245,13 @@
         <v>122828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -5299,13 +5260,13 @@
         <v>67399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5314,19 +5275,19 @@
         <v>190227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>108</v>
@@ -5335,13 +5296,13 @@
         <v>111123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -5350,13 +5311,13 @@
         <v>73887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -5365,19 +5326,19 @@
         <v>185009</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>116</v>
@@ -5386,13 +5347,13 @@
         <v>123674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5401,13 +5362,13 @@
         <v>87542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -5416,13 +5377,13 @@
         <v>211216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5439,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5490,13 +5451,13 @@
         <v>36061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5505,13 +5466,13 @@
         <v>24937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -5520,13 +5481,13 @@
         <v>60998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5502,13 @@
         <v>46968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5556,13 +5517,13 @@
         <v>33211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -5571,19 +5532,19 @@
         <v>80179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>83</v>
@@ -5592,13 +5553,13 @@
         <v>91151</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -5607,13 +5568,13 @@
         <v>62416</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5622,19 +5583,19 @@
         <v>153567</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>449</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>80</v>
@@ -5643,13 +5604,13 @@
         <v>88244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -5658,13 +5619,13 @@
         <v>51685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -5673,19 +5634,19 @@
         <v>139929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>94</v>
@@ -5694,13 +5655,13 @@
         <v>105305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -5709,13 +5670,13 @@
         <v>70869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5724,13 +5685,13 @@
         <v>176173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5747,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5798,13 +5759,13 @@
         <v>16604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -5813,13 +5774,13 @@
         <v>10338</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -5828,13 +5789,13 @@
         <v>26942</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5810,13 @@
         <v>18425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5864,13 +5825,13 @@
         <v>19832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5879,19 +5840,19 @@
         <v>38257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>349</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7">
         <v>35</v>
@@ -5900,13 +5861,13 @@
         <v>41289</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>485</v>
+        <v>274</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5915,13 +5876,13 @@
         <v>21184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -5930,19 +5891,19 @@
         <v>62474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -5951,13 +5912,13 @@
         <v>30267</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5966,13 +5927,13 @@
         <v>23348</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -5981,19 +5942,19 @@
         <v>53615</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>54</v>
@@ -6002,13 +5963,13 @@
         <v>59141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -6017,13 +5978,13 @@
         <v>31176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -6032,13 +5993,13 @@
         <v>90317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>506</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6055,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6067,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6121,13 +6082,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6136,13 +6097,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6118,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6172,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6187,19 +6148,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
@@ -6208,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6223,13 +6184,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6238,19 +6199,19 @@
         <v>1183</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>3</v>
@@ -6259,13 +6220,13 @@
         <v>2870</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6274,13 +6235,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -6289,19 +6250,19 @@
         <v>2870</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>521</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>3</v>
@@ -6310,13 +6271,13 @@
         <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6325,13 +6286,13 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6340,13 +6301,13 @@
         <v>6103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6375,13 @@
         <v>154140</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>533</v>
+        <v>312</v>
       </c>
       <c r="H40" s="7">
         <v>107</v>
@@ -6429,13 +6390,13 @@
         <v>109992</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="M40" s="7">
         <v>246</v>
@@ -6444,13 +6405,13 @@
         <v>264132</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>539</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6426,13 @@
         <v>187440</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="H41" s="7">
         <v>146</v>
@@ -6480,13 +6441,13 @@
         <v>150403</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>544</v>
+        <v>341</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="M41" s="7">
         <v>322</v>
@@ -6495,19 +6456,19 @@
         <v>337843</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="7">
         <v>349</v>
@@ -6516,13 +6477,13 @@
         <v>376194</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>410</v>
+        <v>533</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H42" s="7">
         <v>266</v>
@@ -6531,13 +6492,13 @@
         <v>264690</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="M42" s="7">
         <v>615</v>
@@ -6546,19 +6507,19 @@
         <v>640885</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>49</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>305</v>
@@ -6567,13 +6528,13 @@
         <v>321151</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>317</v>
+        <v>89</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H43" s="7">
         <v>232</v>
@@ -6582,13 +6543,13 @@
         <v>236082</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="M43" s="7">
         <v>537</v>
@@ -6597,19 +6558,19 @@
         <v>557233</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>354</v>
@@ -6618,13 +6579,13 @@
         <v>383397</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>408</v>
+        <v>547</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="H44" s="7">
         <v>262</v>
@@ -6633,13 +6594,13 @@
         <v>276004</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="M44" s="7">
         <v>616</v>
@@ -6648,13 +6609,13 @@
         <v>659401</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,7 +6671,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E75ADDEE-2529-4D21-8909-CE70B91D8F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{193A4881-9193-48A8-8F9C-6F59B88C7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFFA8224-5791-429B-B0F6-C5207512813A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{23046008-7074-49E9-BEC5-B823E2BFB9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="554">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -219,7 +219,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>8,71%</t>
@@ -357,7 +357,7 @@
     <t>38,47%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,83%</t>
@@ -492,7 +492,7 @@
     <t>42,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,81%</t>
@@ -621,7 +621,7 @@
     <t>48,18%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,39%</t>
@@ -756,7 +756,7 @@
     <t>56,92%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
@@ -804,6 +804,12 @@
     <t>84,82%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>6,9%</t>
   </si>
   <si>
@@ -1524,22 +1530,16 @@
     <t>27,77%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>19,65%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>49,54%</t>
   </si>
   <si>
     <t>22,79%</t>
@@ -1548,34 +1548,28 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>57,56%</t>
@@ -1584,13 +1578,16 @@
     <t>16,54%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>10,84%</t>
@@ -2113,8 +2110,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF764E5E-A83E-4CC9-AB41-11427775F32B}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5643E9E7-3442-40A9-8419-73ECDC4F8C9E}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2710,7 +2707,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>69126</v>
+        <v>69127</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>91</v>
@@ -2812,7 +2809,7 @@
         <v>255</v>
       </c>
       <c r="I15" s="7">
-        <v>274010</v>
+        <v>274011</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -4073,55 +4070,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>87</v>
-      </c>
-      <c r="D40" s="7">
-        <v>97602</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
-        <v>85</v>
-      </c>
-      <c r="I40" s="7">
-        <v>91047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>172</v>
-      </c>
-      <c r="N40" s="7">
-        <v>188649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +4121,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>92</v>
-      </c>
-      <c r="D41" s="7">
-        <v>99167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
-        <v>61</v>
-      </c>
-      <c r="I41" s="7">
-        <v>68247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>153</v>
-      </c>
-      <c r="N41" s="7">
-        <v>167413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +4166,43 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>281</v>
-      </c>
-      <c r="D42" s="7">
-        <v>296208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>177</v>
-      </c>
-      <c r="I42" s="7">
-        <v>196235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>458</v>
-      </c>
-      <c r="N42" s="7">
-        <v>492443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,49 +4211,43 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>339</v>
-      </c>
-      <c r="D43" s="7">
-        <v>356282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
-        <v>200</v>
-      </c>
-      <c r="I43" s="7">
-        <v>210776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>539</v>
-      </c>
-      <c r="N43" s="7">
-        <v>567058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,49 +4256,43 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>528</v>
-      </c>
-      <c r="D44" s="7">
-        <v>564694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
-        <v>345</v>
-      </c>
-      <c r="I44" s="7">
-        <v>374046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>873</v>
-      </c>
-      <c r="N44" s="7">
-        <v>938740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,63 +4301,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>87</v>
+      </c>
+      <c r="D46" s="7">
+        <v>97602</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="7">
+        <v>85</v>
+      </c>
+      <c r="I46" s="7">
+        <v>91047</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46" s="7">
+        <v>172</v>
+      </c>
+      <c r="N46" s="7">
+        <v>188649</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>92</v>
+      </c>
+      <c r="D47" s="7">
+        <v>99167</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H47" s="7">
+        <v>61</v>
+      </c>
+      <c r="I47" s="7">
+        <v>68247</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M47" s="7">
+        <v>153</v>
+      </c>
+      <c r="N47" s="7">
+        <v>167413</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>281</v>
+      </c>
+      <c r="D48" s="7">
+        <v>296208</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="7">
+        <v>177</v>
+      </c>
+      <c r="I48" s="7">
+        <v>196235</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="7">
+        <v>458</v>
+      </c>
+      <c r="N48" s="7">
+        <v>492443</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>339</v>
+      </c>
+      <c r="D49" s="7">
+        <v>356282</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="7">
+        <v>200</v>
+      </c>
+      <c r="I49" s="7">
+        <v>210776</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M49" s="7">
+        <v>539</v>
+      </c>
+      <c r="N49" s="7">
+        <v>567058</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>528</v>
+      </c>
+      <c r="D50" s="7">
+        <v>564694</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="7">
+        <v>345</v>
+      </c>
+      <c r="I50" s="7">
+        <v>374046</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" s="7">
+        <v>873</v>
+      </c>
+      <c r="N50" s="7">
+        <v>938740</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1327</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1413953</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>868</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>940350</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2195</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2354303</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>296</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4403,8 +4673,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B606B-C062-49C6-9C3A-380514714770}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D36D591-47F6-457A-81A8-8E57EB693B71}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4420,7 +4690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4527,13 +4797,13 @@
         <v>13758</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4542,13 +4812,13 @@
         <v>6095</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -4557,13 +4827,13 @@
         <v>19853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4848,13 @@
         <v>9475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4593,13 +4863,13 @@
         <v>12233</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4608,10 +4878,10 @@
         <v>21708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>171</v>
@@ -4629,13 +4899,13 @@
         <v>28441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -4644,13 +4914,13 @@
         <v>31928</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -4659,13 +4929,13 @@
         <v>60369</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4950,13 @@
         <v>14790</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4695,13 +4965,13 @@
         <v>15409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4710,13 +4980,13 @@
         <v>30198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +5001,13 @@
         <v>12645</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4746,13 +5016,13 @@
         <v>26190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -4761,13 +5031,13 @@
         <v>38835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +5105,13 @@
         <v>42554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4850,13 +5120,13 @@
         <v>26466</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4865,13 +5135,13 @@
         <v>69020</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +5156,13 @@
         <v>55771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -4901,13 +5171,13 @@
         <v>37676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>92</v>
@@ -4916,13 +5186,13 @@
         <v>93447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +5207,13 @@
         <v>92485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -4952,13 +5222,13 @@
         <v>80580</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -4967,13 +5237,13 @@
         <v>173065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5258,13 @@
         <v>73859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -5003,13 +5273,13 @@
         <v>71753</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -5021,10 +5291,10 @@
         <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5309,13 @@
         <v>79516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -5054,13 +5324,13 @@
         <v>57240</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5069,13 +5339,13 @@
         <v>136757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5413,13 @@
         <v>45163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5158,28 +5428,28 @@
         <v>41135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
       </c>
       <c r="N16" s="7">
-        <v>86299</v>
+        <v>86298</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5464,13 @@
         <v>56800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5212,10 +5482,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -5224,13 +5494,13 @@
         <v>104250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5515,13 @@
         <v>122828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -5260,13 +5530,13 @@
         <v>67399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>186</v>
@@ -5275,13 +5545,13 @@
         <v>190227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5566,13 @@
         <v>111123</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -5311,13 +5581,13 @@
         <v>73887</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -5326,13 +5596,13 @@
         <v>185009</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5617,13 @@
         <v>123674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -5362,13 +5632,13 @@
         <v>87542</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -5377,13 +5647,13 @@
         <v>211216</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5695,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -5451,13 +5721,13 @@
         <v>36061</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>23</v>
@@ -5466,10 +5736,10 @@
         <v>24937</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>199</v>
@@ -5481,13 +5751,13 @@
         <v>60998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5772,13 @@
         <v>46968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -5517,13 +5787,13 @@
         <v>33211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -5532,13 +5802,13 @@
         <v>80179</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5823,13 @@
         <v>91151</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>58</v>
@@ -5568,13 +5838,13 @@
         <v>62416</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -5583,13 +5853,13 @@
         <v>153567</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5874,13 @@
         <v>88244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -5619,13 +5889,13 @@
         <v>51685</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -5634,13 +5904,13 @@
         <v>139929</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5925,13 @@
         <v>105305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -5670,13 +5940,13 @@
         <v>70869</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5685,13 +5955,13 @@
         <v>176173</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,10 +6029,10 @@
         <v>16604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>34</v>
@@ -5774,13 +6044,13 @@
         <v>10338</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -5789,13 +6059,13 @@
         <v>26942</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +6080,13 @@
         <v>18425</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5825,13 +6095,13 @@
         <v>19832</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -5840,13 +6110,13 @@
         <v>38257</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +6131,13 @@
         <v>41289</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -5876,13 +6146,13 @@
         <v>21184</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -5894,10 +6164,10 @@
         <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +6182,13 @@
         <v>30267</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>20</v>
@@ -5927,13 +6197,13 @@
         <v>23348</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -5942,13 +6212,13 @@
         <v>53615</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6233,13 @@
         <v>59141</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -5978,13 +6248,13 @@
         <v>31176</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M32" s="7">
         <v>80</v>
@@ -5993,13 +6263,13 @@
         <v>90317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,7 +6343,7 @@
         <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6082,13 +6352,13 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -6097,13 +6367,13 @@
         <v>1020</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>497</v>
+        <v>385</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6394,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6139,7 +6409,7 @@
         <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6154,7 +6424,7 @@
         <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>500</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6445,7 @@
         <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6214,19 +6484,19 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>2870</v>
+        <v>2075</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>505</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6241,22 +6511,22 @@
         <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>2870</v>
+        <v>2075</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6541,13 @@
         <v>3115</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>511</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6286,10 +6556,10 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>244</v>
@@ -6301,13 +6571,13 @@
         <v>6103</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>101</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,10 +6586,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -6346,10 +6616,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -6363,55 +6633,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>154140</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>518</v>
+        <v>207</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>312</v>
+        <v>515</v>
       </c>
       <c r="H40" s="7">
-        <v>107</v>
-      </c>
-      <c r="I40" s="7">
-        <v>109992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>520</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>521</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>522</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>264132</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>523</v>
+        <v>207</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>524</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>69</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,49 +6688,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>187440</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>525</v>
+        <v>207</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>526</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>356</v>
+        <v>515</v>
       </c>
       <c r="H41" s="7">
-        <v>146</v>
-      </c>
-      <c r="I41" s="7">
-        <v>150403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>528</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>337843</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>529</v>
+        <v>207</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,49 +6737,47 @@
         <v>29</v>
       </c>
       <c r="C42" s="7">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>376194</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>532</v>
+        <v>207</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>533</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="H42" s="7">
-        <v>266</v>
-      </c>
-      <c r="I42" s="7">
-        <v>264690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>535</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>536</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>640885</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>538</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,49 +6786,47 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>321151</v>
+        <v>795</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>540</v>
+        <v>244</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>89</v>
+        <v>516</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>541</v>
+        <v>59</v>
       </c>
       <c r="H43" s="7">
-        <v>232</v>
-      </c>
-      <c r="I43" s="7">
-        <v>236082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>542</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>535</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>557233</v>
+        <v>795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>543</v>
+        <v>244</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>545</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,49 +6835,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>383397</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>546</v>
+        <v>207</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>547</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="H44" s="7">
-        <v>262</v>
-      </c>
-      <c r="I44" s="7">
-        <v>276004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>549</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>550</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>551</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>659401</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>552</v>
+        <v>207</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>553</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,63 +6884,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>139</v>
+      </c>
+      <c r="D46" s="7">
+        <v>154140</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H46" s="7">
+        <v>107</v>
+      </c>
+      <c r="I46" s="7">
+        <v>109992</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M46" s="7">
+        <v>246</v>
+      </c>
+      <c r="N46" s="7">
+        <v>264132</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>176</v>
+      </c>
+      <c r="D47" s="7">
+        <v>187440</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H47" s="7">
+        <v>146</v>
+      </c>
+      <c r="I47" s="7">
+        <v>150403</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M47" s="7">
+        <v>322</v>
+      </c>
+      <c r="N47" s="7">
+        <v>337843</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7">
+        <v>349</v>
+      </c>
+      <c r="D48" s="7">
+        <v>376194</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H48" s="7">
+        <v>266</v>
+      </c>
+      <c r="I48" s="7">
+        <v>264690</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M48" s="7">
+        <v>615</v>
+      </c>
+      <c r="N48" s="7">
+        <v>640885</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>305</v>
+      </c>
+      <c r="D49" s="7">
+        <v>321151</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H49" s="7">
+        <v>232</v>
+      </c>
+      <c r="I49" s="7">
+        <v>236082</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M49" s="7">
+        <v>537</v>
+      </c>
+      <c r="N49" s="7">
+        <v>557233</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>354</v>
+      </c>
+      <c r="D50" s="7">
+        <v>383397</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H50" s="7">
+        <v>262</v>
+      </c>
+      <c r="I50" s="7">
+        <v>276004</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M50" s="7">
+        <v>616</v>
+      </c>
+      <c r="N50" s="7">
+        <v>659401</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>296</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
